--- a/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,65%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,36; 5,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>3,72; 7,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,65; 6,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>6,53; 11,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>6,73; 9,79</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>9,47; 12,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>10,54; 15,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>16,29; 21,22</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>5,61; 7,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>7,33; 9,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>7,98; 10,88</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>13,06; 16,47</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>0,94; 2,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,82; 3,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>2,48; 4,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>3,29; 5,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>2,86; 4,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>4,11; 6,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>5,41; 7,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>5,39; 7,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,01; 3,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,16; 4,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>4,09; 5,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,64; 5,97</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,31; 4,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>1,58; 5,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,48; 4,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>1,46; 3,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>1,55; 4,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,02; 5,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,31; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,37; 4,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,74; 3,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,32; 4,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>1,75; 3,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,16; 3,78</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,11; 3,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,75; 4,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,88; 4,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,83; 5,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,53; 6,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,29; 8,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>6,73; 8,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>7,54; 9,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,49; 4,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,73; 5,89</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,07; 6,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,99; 7,24</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>18,03%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 11,17</t>
+          <t>6,29; 10,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,22</t>
+          <t>15,94; 20,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 16,47</t>
+          <t>12,6; 15,79</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,07</t>
+          <t>2,57; 4,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,39; 7,59</t>
+          <t>4,21; 7,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 5,97</t>
+          <t>3,78; 5,51</t>
         </is>
       </c>
     </row>
@@ -951,27 +951,27 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,46%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,62%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>2,44%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,81%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>3,62%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,87%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,46; 3,82</t>
+          <t>1,48; 3,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,64</t>
+          <t>2,34; 4,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,78</t>
+          <t>2,15; 3,75</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,09%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,83; 5,28</t>
+          <t>3,2; 4,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,54; 9,5</t>
+          <t>6,53; 8,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,99; 7,24</t>
+          <t>5,2; 6,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A05-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 5,85</t>
+          <t>3,49; 6,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,07</t>
+          <t>3,94; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 6,78</t>
+          <t>3,74; 6,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,76</t>
+          <t>6,42; 10,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,73; 9,79</t>
+          <t>6,64; 9,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 12,94</t>
+          <t>9,36; 12,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,54; 15,08</t>
+          <t>10,55; 14,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,94; 20,45</t>
+          <t>16,03; 20,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,59</t>
+          <t>5,66; 7,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 9,76</t>
+          <t>7,39; 9,85</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,98; 10,88</t>
+          <t>8,04; 10,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,6; 15,79</t>
+          <t>12,62; 16,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,14</t>
+          <t>0,99; 2,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 3,35</t>
+          <t>1,78; 3,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,48; 4,03</t>
+          <t>2,44; 4,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,56</t>
+          <t>2,47; 4,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,77</t>
+          <t>2,87; 4,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 6,38</t>
+          <t>4,13; 6,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,41; 7,65</t>
+          <t>5,48; 7,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,14</t>
+          <t>4,24; 7,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 3,18</t>
+          <t>2,09; 3,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 4,44</t>
+          <t>3,12; 4,47</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,09; 5,49</t>
+          <t>4,15; 5,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,51</t>
+          <t>3,88; 5,57</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,03</t>
+          <t>1,36; 4,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 5,68</t>
+          <t>1,56; 5,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,47</t>
+          <t>1,59; 4,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,81</t>
+          <t>1,49; 3,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,5</t>
+          <t>1,53; 4,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,55</t>
+          <t>2,23; 5,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 4,1</t>
+          <t>1,37; 4,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 4,58</t>
+          <t>2,35; 4,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 3,82</t>
+          <t>1,78; 3,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,32; 4,94</t>
+          <t>2,19; 4,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 3,78</t>
+          <t>1,62; 3,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,15; 3,75</t>
+          <t>2,12; 3,74</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,2</t>
+          <t>2,08; 3,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,07</t>
+          <t>2,75; 4,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,2</t>
+          <t>2,87; 4,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,91</t>
+          <t>3,17; 4,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 6,08</t>
+          <t>4,61; 6,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 8,07</t>
+          <t>6,29; 8,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 8,61</t>
+          <t>6,77; 8,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 8,97</t>
+          <t>6,58; 8,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 4,43</t>
+          <t>3,54; 4,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 5,89</t>
+          <t>4,75; 5,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 6,15</t>
+          <t>5,08; 6,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 6,76</t>
+          <t>5,28; 6,77</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido tranquilizantes en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46763</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>50760</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38074</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>43409</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>107331</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>145894</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>126349</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>135395</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>154094</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>196653</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>164423</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>178804</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>36009; 62409</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>38383; 69653</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28187; 51089</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32964; 56213</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>87273; 127914</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>124773; 170796</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>104893; 148286</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>120428; 154412</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>132746; 179097</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>170575; 227253</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>140534; 189780</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>159647; 202732</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>24251</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48569</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65106</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>82411</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>59409</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90344</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>129947</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>133316</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>83660</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>138913</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>195053</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>215726</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16771; 37225</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34964; 64345</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50609; 83135</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>56482; 105732</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>45522; 73769</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>72398; 111447</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>109037; 154044</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94921; 159846</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>68630; 105587</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>115776; 165741</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>168669; 225908</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>175660; 252400</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13538</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15456</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14985</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15894</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13398</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16574</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13382</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>21586</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26936</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32030</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28367</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37480</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7492; 22617</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7469; 28118</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8707; 25444</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9663; 24837</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7279; 22314</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10206; 27278</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7532; 23948</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15536; 30798</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18323; 39708</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20542; 46668</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>17783; 40734</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27655; 48901</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>677</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>84552</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>114785</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>118165</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>141714</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>180138</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>252812</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>269678</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>290297</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>264690</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>367597</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>387843</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>432011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>68210; 105061</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>93928; 141185</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>96907; 139321</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>109253; 168898</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>155861; 207406</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>222978; 287626</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>238967; 301785</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>240087; 325034</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>235596; 301929</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>330466; 412330</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>351175; 430577</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>374744; 480565</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>